--- a/Day-10/students.xlsx
+++ b/Day-10/students.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\OneDrive\Desktop\aimltraining\Day-10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4F2F99-4672-4A9A-9761-73E3714C3C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -35,13 +41,19 @@
   </si>
   <si>
     <t>Sara</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Rohit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +116,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +168,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +237,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,14 +413,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -420,7 +444,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -431,7 +455,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -442,7 +466,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -451,6 +475,28 @@
       </c>
       <c r="C5">
         <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Day-10/students.xlsx
+++ b/Day-10/students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\OneDrive\Desktop\aimltraining\Day-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4F2F99-4672-4A9A-9761-73E3714C3C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E30452-E77C-4A3B-BE9C-245169DD6E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2093" yWindow="2093" windowWidth="16000" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="A1:XFD1048576"/>
+      <selection activeCell="D8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -463,7 +463,7 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -474,7 +474,7 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
@@ -485,7 +485,7 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -496,7 +496,7 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
